--- a/OriginalDatas/IAP.xlsx
+++ b/OriginalDatas/IAP.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,14 +69,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IAP13</t>
-  </si>
-  <si>
     <t>Unlock G-Virus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Unlock T-Virus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Consumable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Price.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Consumable.Price.100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable.Price.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable.Price.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable.Price.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumable.Price.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Consumable.Price.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Consumable.Price.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP3</t>
+  </si>
+  <si>
+    <t>IAP4</t>
+  </si>
+  <si>
+    <t>IAP5</t>
+  </si>
+  <si>
+    <t>IAP6</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,9 +235,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,11 +579,11 @@
       <c r="C3" s="1">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -484,64 +594,115 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -549,4 +710,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>